--- a/brain/LOV List of Values.xlsx
+++ b/brain/LOV List of Values.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet3!$A$1:$F$10</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="254">
   <si>
     <t xml:space="preserve">erDiagram    </t>
   </si>
@@ -720,7 +723,7 @@
     <t xml:space="preserve">LOV (List of values)</t>
   </si>
   <si>
-    <t xml:space="preserve">ID (AUTO)</t>
+    <t xml:space="preserve">ID (PK/AUTO)</t>
   </si>
   <si>
     <t xml:space="preserve">TABLE</t>
@@ -735,6 +738,9 @@
     <t xml:space="preserve">VALUE</t>
   </si>
   <si>
+    <t xml:space="preserve">ACTIVE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOTORISTA</t>
   </si>
   <si>
@@ -765,6 +771,9 @@
     <t xml:space="preserve">FEMININO</t>
   </si>
   <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
@@ -774,10 +783,10 @@
     <t xml:space="preserve">DIRETOR</t>
   </si>
   <si>
-    <t xml:space="preserve">select  key, value from LOV where table = ‘CARGO’ order by column_order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select  key, value from LOV where table = ‘SETOR’ order by column_order</t>
+    <t xml:space="preserve">select  key, value from LOV where table = ‘CARGO’ and active = true order by column_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select  key, value from LOV where table = ‘SETOR’ and active = true  order by column_order</t>
   </si>
 </sst>
 </file>
@@ -792,6 +801,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -813,6 +823,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -875,7 +886,20 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,7 +913,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.47"/>
   </cols>
@@ -1596,7 +1620,7 @@
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="24.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.6"/>
@@ -2846,13 +2870,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="320" zoomScaleNormal="320" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="320" zoomScaleNormal="320" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.91"/>
@@ -2882,6 +2906,9 @@
       <c r="E2" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -2897,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +2989,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,16 +3000,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,15 +3020,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3016,20 +3049,21 @@
         <v>4</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F10"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3037,5 +3071,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>